--- a/materiali/poivorrei_paideia.xlsx
+++ b/materiali/poivorrei_paideia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="431">
   <si>
     <t>data di pubblicazione</t>
   </si>
@@ -73,12 +73,6 @@
     <t>['153 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
   </si>
   <si>
-    <t>poivorrei | caffe da Modo la mattina presto : [#REDACTED] Beatrice roma3</t>
-  </si>
-  <si>
-    <t>['95 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
     <t>poivorrei tornare ancora a pranzare sulle scale. mines oS [#REDACTED] Sr ere) Frenette</t>
   </si>
   <si>
@@ -91,54 +85,21 @@
     <t>['18 likes, [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
   </si>
   <si>
-    <t>poivorrei fare la fila seduta per terra davanti alla stanza della professoressa Frascarelli. : [#REDACTED] Dalia, 25 roma3</t>
-  </si>
-  <si>
-    <t>['65 likes, cari saluti a Mara nazionale \n', '[#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poivorrei_ tornare all'ora di pranzo a fare le corse per prendere il posto all'ape. [#REDACTED] roma3 Eugenia, 21</t>
-  </si>
-  <si>
-    <t>['46 likes, [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>poivorrei tornare allaula 24 di lettere e filosofia perché é Ii che ho conosciuto le migliori amiche di sempre. Francesca, 21 [#REDACTED] romatre</t>
+    <t>Poivorrei giocare a tressette a lettere in aula 15. ge &gt; Tee eer oo</t>
+  </si>
+  <si>
+    <t>['23 likes, [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>Poi vorrei “Il matto che urla alle lezioni"</t>
   </si>
   <si>
     <t>['23 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
   </si>
   <si>
-    <t>poivorrei tornare a vivere quell'ansia pre esame e fumarmi una sigaretta dopo ieee [#REDACTED] roma3</t>
-  </si>
-  <si>
-    <t>['71 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>poivorrei tornare a lamentarmi delle macchinette del caffé di lettere che sono rotte un giorno si e I'altro pure. . [#REDACTED] roma3 Giorgia</t>
-  </si>
-  <si>
-    <t>['95 likes, quanti santi calati \n', '[#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poivorrei giocare a tressette a lettere in aula 15. ge &gt; Tee eer oo</t>
-  </si>
-  <si>
-    <t>['23 likes, [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poivorrel il parchetto in via Sant'Agnese Poivorrei.Cattolica</t>
-  </si>
-  <si>
-    <t>['36 likes, [@REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>2020-04-23</t>
-  </si>
-  <si>
-    <t>Poi vorrei “Il matto che urla alle lezioni"</t>
-  </si>
-  <si>
     <t>Poi vorrei tornare a guardare i ricci di Pellicano</t>
   </si>
   <si>
@@ -241,156 +202,102 @@
     <t>['69 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
   </si>
   <si>
-    <t>Vedere la data del giorno scritta con i fori. # poivorreiUnisa</t>
+    <t>Poivorrei la pausa studio alle panchine del cortile di SciPol.</t>
+  </si>
+  <si>
+    <t>['60 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>poivorrei "OSgi poke?" [#REDACTED] Sara, 20 Onna</t>
+  </si>
+  <si>
+    <t>['53 likes, [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>Poivorrei il Cappuccino goloso n° 20 alla macchinetta di economia. Marta, 19 spoon!</t>
+  </si>
+  <si>
+    <t>['52 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>Poi vorrei "Mangiare gli gnocchi ai funghi alla mensa di Ing" Roberto</t>
+  </si>
+  <si>
+    <t>Poi vorrei Essere in ritardo ad una lezione [#REDACTED]</t>
+  </si>
+  <si>
+    <t>['75 likes, E voi come siete: \n', 'puntuali o ritardatari?⏰ captions\n']</t>
+  </si>
+  <si>
+    <t>Poi vorrei "La pausa con il caffe alle macchinette" Eleonora,20</t>
+  </si>
+  <si>
+    <t>['21 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>Poi vorrei "Giocare a tressette a | N(CH J Ps Giovanni, 27</t>
+  </si>
+  <si>
+    <t>Poi vorrei mE) CE) Mamarama” isa, 21</t>
+  </si>
+  <si>
+    <t>Poi vorrei “Tornare a passare giornate intere al Fondaco a studiare” Deborah</t>
+  </si>
+  <si>
+    <t>['15 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>Poi vorrei “essere sotto casa del mio ragazzo e riabbracciarlo" Francesca, 24</t>
+  </si>
+  <si>
+    <t>Poi vorrei tornare a sbocciare allo [@REDACTED] CHIARA, 19 ANNI</t>
+  </si>
+  <si>
+    <t>['210 likes, [#REDACTED] bere🍹 captions\n']</t>
+  </si>
+  <si>
+    <t>Poivorrei ~ TIE REO coos Lee MMII CK) = [#REDACTED] TET 20</t>
+  </si>
+  <si>
+    <t>['43 likes, [#REDACTED] -insultare la gente che parla in biblioteca. 🤬\n', '[#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>Poivorrei correre da un’aula allaltra perché ogni semestre puntualmente qualche lezione si accavalla. [#REDACTED] Valeperu rOtNae</t>
+  </si>
+  <si>
+    <t>['94 likes, 🏃🏻\u200d♂️ [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>~ poivorrei fare na bella Cagata Cansia pre esame al Cesso con la porta che non se chiude mai e con la strizza che qualcuno entri dopo di me # DOIVOTTE! romas</t>
+  </si>
+  <si>
+    <t>['82 likes, nome oscurato per ovvi motivi\n', '[#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>Poi vorrei "La pausa caffe al bar di ingegneria’ Simone,22</t>
+  </si>
+  <si>
+    <t>['20 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
+  </si>
+  <si>
+    <t>Poi vorrei poter riabbracciare le persone che amo e con cul condivido tutto. LEONARDO, 22 ANNI</t>
+  </si>
+  <si>
+    <t>['196 likes, [#REDACTED] un abbraccio captions\n']</t>
+  </si>
+  <si>
+    <t>4 Poivorrei Ae lo ZENG pieno di quadern! promozionali di BS Just Eat.</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>Il caffé alle macchinette con le mie amiche. # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>BE Tem m Cate tas (orem tela beet Ce Mame naeLeCancte BOM sLeiKOee # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>Poivorrei | stendermi Sul prato ad Ingegneria. Rea Silvia, 24 7 Pe\ceirell roma3</t>
-  </si>
-  <si>
-    <t>Poivorrei le pause pranzo in terrazza al T Bar. [#REDACTED] roma3 Andrea —</t>
-  </si>
-  <si>
-    <t>['56 likes, [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Avere le palpitazioni quando mi chiamano in aula per sostenere l’esame. # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>Poivorrei la pausa studio alle panchine del cortile di SciPol.</t>
-  </si>
-  <si>
-    <t>['60 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Rivedere i cani di Unisa. # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>Essere trascinata dal aeteoMeb Mab Kor bile # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>Roberto poivorreiunisi</t>
-  </si>
-  <si>
-    <t>Godermi la pausa sigaretta Coy eee oe # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>Godermi un tramonto silenzioso dopo una giornata di studio. # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>poivorrei "OSgi poke?" [#REDACTED] Sara, 20 Onna</t>
-  </si>
-  <si>
-    <t>['53 likes, [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poivorrei il Cappuccino goloso n° 20 alla macchinetta di economia. Marta, 19 spoon!</t>
-  </si>
-  <si>
-    <t>['52 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Sudare al sole e tremare all’ombra. # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>Prendere il caffé ed essere chiamata dottoressa da Antonio del bar di lettere. # poivorreiUnisa</t>
-  </si>
-  <si>
-    <t>2020-04-24</t>
-  </si>
-  <si>
-    <t>Poi vorrei "Mangiare gli gnocchi ai funghi alla mensa di Ing" Roberto</t>
-  </si>
-  <si>
-    <t>Poi vorrei Essere in ritardo ad una lezione [#REDACTED]</t>
-  </si>
-  <si>
-    <t>['75 likes, E voi come siete: \n', 'puntuali o ritardatari?⏰ captions\n']</t>
-  </si>
-  <si>
-    <t>Poi vorrei "La pausa con il caffe alle macchinette" Eleonora,20</t>
-  </si>
-  <si>
-    <t>['21 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poi vorrei "Giocare a tressette a | N(CH J Ps Giovanni, 27</t>
-  </si>
-  <si>
-    <t>Poi vorrei mE) CE) Mamarama” isa, 21</t>
-  </si>
-  <si>
-    <t>Poi vorrei “Tornare a passare giornate intere al Fondaco a studiare” Deborah</t>
-  </si>
-  <si>
-    <t>['15 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poi vorrei “essere sotto casa del mio ragazzo e riabbracciarlo" Francesca, 24</t>
-  </si>
-  <si>
-    <t>Poi vorrei tornare a sbocciare allo [@REDACTED] CHIARA, 19 ANNI</t>
-  </si>
-  <si>
-    <t>['210 likes, [#REDACTED] bere🍹 captions\n']</t>
-  </si>
-  <si>
-    <t>| | poivorrei trattenere il respiro per le scale della | stazione metro Marconi che . Sbucano al parcheggio perché mal puzzano di pipi. { Caludine, 20 [#REDACTED] i roma3</t>
-  </si>
-  <si>
-    <t>['110 likes, un po’ giusto, un po’ masochista \n', '[#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>d poivorrei “\ “cannetta ad economia” BT \ = Ee) [#REDACTED] Isabella, A, hy roma3 “~~</t>
-  </si>
-  <si>
-    <t>['36 likes, [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poivorrei ~ TIE REO coos Lee MMII CK) = [#REDACTED] TET 20</t>
-  </si>
-  <si>
-    <t>['43 likes, [#REDACTED] -insultare la gente che parla in biblioteca. 🤬\n', '[#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poivorrei correre da un’aula allaltra perché ogni semestre puntualmente qualche lezione si accavalla. [#REDACTED] Valeperu rOtNae</t>
-  </si>
-  <si>
-    <t>['94 likes, 🏃🏻\u200d♂️ [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>~ poivorrei fare na bella Cagata Cansia pre esame al Cesso con la porta che non se chiude mai e con la strizza che qualcuno entri dopo di me # DOIVOTTE! romas</t>
-  </si>
-  <si>
-    <t>['82 likes, nome oscurato per ovvi motivi\n', '[#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>2020-04-25</t>
-  </si>
-  <si>
-    <t>Poi vorrei "La pausa caffe al bar di ingegneria’ Simone,22</t>
-  </si>
-  <si>
-    <t>['20 likes, [#REDACTED] [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poi vorrei poter riabbracciare le persone che amo e con cul condivido tutto. LEONARDO, 22 ANNI</t>
-  </si>
-  <si>
-    <t>['196 likes, [#REDACTED] un abbraccio captions\n']</t>
-  </si>
-  <si>
-    <t>4 Poivorrei Ae lo ZENG pieno di quadern! promozionali di BS Just Eat.</t>
-  </si>
-  <si>
     <t>Poivorrei tornare a litigare con gli armadietti digitali cS) F r=) Ole Mt cree [#REDACTED] Rebecea, 21</t>
   </si>
   <si>
@@ -526,12 +433,6 @@
     <t>Poi vorrei "Tornare a fare colazione al bar rel mrceve (late Mara,23</t>
   </si>
   <si>
-    <t>Poivorrei alrivare come sempre in ritardo per la lezione e prima di entrare chiedere ai miei amici Su whatsapp dove si trova il posto che mi Stanno tenendo. Eva, 2] [#REDACTED] , roma3</t>
-  </si>
-  <si>
-    <t>['207 likes, [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
     <t>2020-04-30</t>
   </si>
   <si>
@@ -664,18 +565,6 @@
     <t>['20 likes, Chi lo ha fatto alzi la mano✋\n', '[#REDACTED] captions\n']</t>
   </si>
   <si>
-    <t>oe Poivorrei le pizzette del forno di fronte f scienze politiche. [#REDACTED] roma3 Giulia, 19 F m : &gt;</t>
-  </si>
-  <si>
-    <t>['59 likes, [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>4 Poivorrei una jam session nel cortile del Dams. [#REDACTED] roma3</t>
-  </si>
-  <si>
-    <t>['26 likes, Gabriele, 24. [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
-  </si>
-  <si>
     <t>mangiare alla finestra del primo piano a San Miniato perche non c’e MAI li b Matilde poivorreiunisi</t>
   </si>
   <si>
@@ -1262,12 +1151,6 @@
   </si>
   <si>
     <t>['14 likes, Buon appetito a tutti🍔🥖\n', '[#REDACTED] captions\n']</t>
-  </si>
-  <si>
-    <t>Poivorrei non tornare all'universita perche il tragitto con i MeEZZi e un'ammazzata e all'uni non CONOSCO nessuno. [#REDACTED] roma3 Lucia</t>
-  </si>
-  <si>
-    <t>['92 likes, [#REDACTED] [#REDACTED] [#REDACTED] captions\n']</t>
   </si>
   <si>
     <t>2020-05-22</t>
@@ -2018,6 +1901,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -2031,7 +1915,6 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -2045,94 +1928,209 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>38</v>
@@ -2142,17 +2140,36 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2179,7 +2196,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>42</v>
@@ -2212,13 +2229,13 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2245,13 +2262,13 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2278,13 +2295,13 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2311,13 +2328,13 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2344,13 +2361,13 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2377,13 +2394,13 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2410,13 +2427,13 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2443,17 +2460,17 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2476,13 +2493,13 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2509,17 +2526,17 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2542,17 +2559,17 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2575,145 +2592,69 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -2740,16 +2681,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2773,20 +2714,20 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2806,96 +2747,195 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>77</v>
+      <c r="C41" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>77</v>
+      <c r="C43" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2903,232 +2943,287 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3148,15 +3243,15 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3181,83 +3276,45 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -3280,17 +3337,17 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -3313,91 +3370,146 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -3420,17 +3532,17 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -3453,68 +3565,120 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>77</v>
+        <v>135</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3533,13 +3697,13 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -3547,7 +3711,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -3566,20 +3730,20 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -3599,39 +3763,79 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="3"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -3639,48 +3843,29 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>56</v>
+        <v>150</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
+      <c r="F81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="7"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3705,41 +3890,79 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="3"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -3766,13 +3989,13 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -3799,13 +4022,13 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -3813,7 +4036,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -3832,18 +4055,18 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -3865,22 +4088,22 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -3898,48 +4121,84 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>77</v>
+        <v>169</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="3"/>
+      <c r="G92" s="7"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -3961,18 +4220,18 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="3"/>
+      <c r="G93" s="7"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -3994,22 +4253,22 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -4027,13 +4286,13 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -4041,14 +4300,14 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
@@ -4060,25 +4319,25 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
@@ -4093,68 +4352,69 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>106</v>
+        <v>184</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -4173,20 +4433,20 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -4206,18 +4466,18 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>179</v>
+        <v>190</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -4239,13 +4499,13 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -4272,46 +4532,84 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>77</v>
+        <v>194</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D105" s="7"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -4333,13 +4631,13 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>188</v>
+        <v>197</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -4366,18 +4664,18 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D107" s="7"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -4399,123 +4697,69 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
-      <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
-      <c r="W109" s="3"/>
-      <c r="X109" s="3"/>
-      <c r="Y109" s="3"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
-      <c r="W110" s="3"/>
-      <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
@@ -4531,22 +4775,22 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
@@ -4564,26 +4808,26 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
@@ -4597,85 +4841,52 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
-      <c r="W115" s="3"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="3"/>
+      <c r="H116" s="7"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -4696,22 +4907,22 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -4729,28 +4940,28 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -4762,25 +4973,25 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
@@ -4795,21 +5006,21 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -4828,48 +5039,61 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>77</v>
+        <v>232</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -4878,18 +5102,18 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
-      <c r="G124" s="3"/>
+      <c r="G124" s="7"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -4911,18 +5135,18 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="D125" s="7"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -4944,18 +5168,18 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>77</v>
+        <v>238</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="3"/>
+      <c r="G126" s="7"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -4977,13 +5201,13 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -5010,20 +5234,20 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>77</v>
+        <v>242</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
-      <c r="I128" s="3"/>
+      <c r="I128" s="7"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -5043,25 +5267,25 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
@@ -5076,19 +5300,19 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="3"/>
+      <c r="H130" s="7"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -5109,18 +5333,18 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>77</v>
+        <v>249</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -5142,20 +5366,20 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -5175,58 +5399,112 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -5253,19 +5531,19 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -5286,17 +5564,17 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
+      <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -5319,31 +5597,46 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -5352,20 +5645,20 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
-      <c r="I141" s="3"/>
+      <c r="I141" s="7"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5385,23 +5678,23 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
@@ -5418,16 +5711,16 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -5451,90 +5744,54 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
-      <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
-      <c r="U145" s="3"/>
-      <c r="V145" s="3"/>
-      <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
-      <c r="Y145" s="3"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
@@ -5550,48 +5807,84 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -5613,51 +5906,31 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-      <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-      <c r="S150" s="3"/>
-      <c r="T150" s="3"/>
-      <c r="U150" s="3"/>
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-      <c r="X150" s="3"/>
-      <c r="Y150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -5679,13 +5952,13 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -5712,20 +5985,20 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5745,25 +6018,25 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
@@ -5778,19 +6051,19 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -5811,17 +6084,17 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
+      <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -5844,20 +6117,20 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5877,18 +6150,18 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -5910,18 +6183,18 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -5943,18 +6216,18 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -5976,24 +6249,24 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
-      <c r="L161" s="7"/>
-      <c r="M161" s="7"/>
+        <v>315</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
@@ -6009,19 +6282,19 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -6042,16 +6315,16 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -6075,28 +6348,28 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="7"/>
-      <c r="M164" s="7"/>
-      <c r="N164" s="7"/>
-      <c r="O164" s="7"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="7"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
@@ -6108,35 +6381,53 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
+        <v>326</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
@@ -6156,23 +6447,23 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
-      <c r="L167" s="7"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
@@ -6189,13 +6480,13 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>313</v>
+        <v>330</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6222,54 +6513,90 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
+        <v>332</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
+        <v>334</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
@@ -6285,19 +6612,19 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
+        <v>339</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
@@ -6318,16 +6645,16 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -6351,13 +6678,13 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -6384,29 +6711,49 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3"/>
+      <c r="V175" s="3"/>
+      <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
+      <c r="Y175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -6430,13 +6777,13 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -6463,16 +6810,16 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
+      <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -6496,79 +6843,39 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>337</v>
+        <v>355</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3"/>
-      <c r="N179" s="3"/>
-      <c r="O179" s="3"/>
-      <c r="P179" s="3"/>
-      <c r="Q179" s="3"/>
-      <c r="R179" s="3"/>
-      <c r="S179" s="3"/>
-      <c r="T179" s="3"/>
-      <c r="U179" s="3"/>
-      <c r="V179" s="3"/>
-      <c r="W179" s="3"/>
-      <c r="X179" s="3"/>
-      <c r="Y179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>340</v>
+        <v>356</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
-      <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
-      <c r="U180" s="3"/>
-      <c r="V180" s="3"/>
-      <c r="W180" s="3"/>
-      <c r="X180" s="3"/>
-      <c r="Y180" s="3"/>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -6595,16 +6902,16 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
+        <v>359</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -6628,13 +6935,13 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -6661,13 +6968,13 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -6694,16 +7001,16 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
+      <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -6727,16 +7034,16 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+        <v>369</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -6760,16 +7067,16 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -6793,16 +7100,16 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -6826,49 +7133,29 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
-      <c r="O189" s="3"/>
-      <c r="P189" s="3"/>
-      <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
-      <c r="U189" s="3"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
+        <v>378</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -6892,16 +7179,16 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+        <v>381</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -6925,16 +7212,16 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
+        <v>383</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -6958,13 +7245,13 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -6991,16 +7278,16 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+        <v>387</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -7024,16 +7311,16 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
+        <v>390</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -7057,13 +7344,13 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -7090,16 +7377,16 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
+        <v>396</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -7123,13 +7410,13 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7156,13 +7443,13 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7189,16 +7476,16 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -7222,16 +7509,16 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -7255,13 +7542,13 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7288,16 +7575,16 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="D203" s="7"/>
-      <c r="E203" s="3"/>
+      <c r="E203" s="7"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -7321,42 +7608,82 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
+        <v>413</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3"/>
+      <c r="X204" s="3"/>
+      <c r="Y204" s="3"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>77</v>
+        <v>415</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3"/>
+      <c r="X205" s="3"/>
+      <c r="Y205" s="3"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
+      <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -7380,16 +7707,16 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+        <v>420</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -7413,16 +7740,16 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
+        <v>422</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -7446,16 +7773,16 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
+        <v>425</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -7479,16 +7806,16 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D210" s="7"/>
-      <c r="E210" s="3"/>
+      <c r="E210" s="7"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -7512,13 +7839,13 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>407</v>
+        <v>430</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7543,824 +7870,6 @@
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
     </row>
-    <row r="212">
-      <c r="A212" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3"/>
-      <c r="Q212" s="3"/>
-      <c r="R212" s="3"/>
-      <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
-      <c r="U212" s="3"/>
-      <c r="V212" s="3"/>
-      <c r="W212" s="3"/>
-      <c r="X212" s="3"/>
-      <c r="Y212" s="3"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3"/>
-      <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
-      <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
-      <c r="W213" s="3"/>
-      <c r="X213" s="3"/>
-      <c r="Y213" s="3"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
-      <c r="R215" s="3"/>
-      <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
-      <c r="U215" s="3"/>
-      <c r="V215" s="3"/>
-      <c r="W215" s="3"/>
-      <c r="X215" s="3"/>
-      <c r="Y215" s="3"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
-      <c r="R217" s="3"/>
-      <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
-      <c r="U217" s="3"/>
-      <c r="V217" s="3"/>
-      <c r="W217" s="3"/>
-      <c r="X217" s="3"/>
-      <c r="Y217" s="3"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
-      <c r="R218" s="3"/>
-      <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
-      <c r="U218" s="3"/>
-      <c r="V218" s="3"/>
-      <c r="W218" s="3"/>
-      <c r="X218" s="3"/>
-      <c r="Y218" s="3"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
-      <c r="R219" s="3"/>
-      <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
-      <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
-      <c r="W219" s="3"/>
-      <c r="X219" s="3"/>
-      <c r="Y219" s="3"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
-      <c r="R220" s="3"/>
-      <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
-      <c r="U220" s="3"/>
-      <c r="V220" s="3"/>
-      <c r="W220" s="3"/>
-      <c r="X220" s="3"/>
-      <c r="Y220" s="3"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-      <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
-      <c r="Y221" s="3"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-      <c r="U222" s="3"/>
-      <c r="V222" s="3"/>
-      <c r="W222" s="3"/>
-      <c r="X222" s="3"/>
-      <c r="Y222" s="3"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
-      <c r="P223" s="3"/>
-      <c r="Q223" s="3"/>
-      <c r="R223" s="3"/>
-      <c r="S223" s="3"/>
-      <c r="T223" s="3"/>
-      <c r="U223" s="3"/>
-      <c r="V223" s="3"/>
-      <c r="W223" s="3"/>
-      <c r="X223" s="3"/>
-      <c r="Y223" s="3"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
-      <c r="P224" s="3"/>
-      <c r="Q224" s="3"/>
-      <c r="R224" s="3"/>
-      <c r="S224" s="3"/>
-      <c r="T224" s="3"/>
-      <c r="U224" s="3"/>
-      <c r="V224" s="3"/>
-      <c r="W224" s="3"/>
-      <c r="X224" s="3"/>
-      <c r="Y224" s="3"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="3"/>
-      <c r="Q225" s="3"/>
-      <c r="R225" s="3"/>
-      <c r="S225" s="3"/>
-      <c r="T225" s="3"/>
-      <c r="U225" s="3"/>
-      <c r="V225" s="3"/>
-      <c r="W225" s="3"/>
-      <c r="X225" s="3"/>
-      <c r="Y225" s="3"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-      <c r="Q226" s="3"/>
-      <c r="R226" s="3"/>
-      <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
-      <c r="U226" s="3"/>
-      <c r="V226" s="3"/>
-      <c r="W226" s="3"/>
-      <c r="X226" s="3"/>
-      <c r="Y226" s="3"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-      <c r="Q227" s="3"/>
-      <c r="R227" s="3"/>
-      <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
-      <c r="U227" s="3"/>
-      <c r="V227" s="3"/>
-      <c r="W227" s="3"/>
-      <c r="X227" s="3"/>
-      <c r="Y227" s="3"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="3"/>
-      <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
-      <c r="U228" s="3"/>
-      <c r="V228" s="3"/>
-      <c r="W228" s="3"/>
-      <c r="X228" s="3"/>
-      <c r="Y228" s="3"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-      <c r="Q229" s="3"/>
-      <c r="R229" s="3"/>
-      <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
-      <c r="U229" s="3"/>
-      <c r="V229" s="3"/>
-      <c r="W229" s="3"/>
-      <c r="X229" s="3"/>
-      <c r="Y229" s="3"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3"/>
-      <c r="Q230" s="3"/>
-      <c r="R230" s="3"/>
-      <c r="S230" s="3"/>
-      <c r="T230" s="3"/>
-      <c r="U230" s="3"/>
-      <c r="V230" s="3"/>
-      <c r="W230" s="3"/>
-      <c r="X230" s="3"/>
-      <c r="Y230" s="3"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-      <c r="P231" s="3"/>
-      <c r="Q231" s="3"/>
-      <c r="R231" s="3"/>
-      <c r="S231" s="3"/>
-      <c r="T231" s="3"/>
-      <c r="U231" s="3"/>
-      <c r="V231" s="3"/>
-      <c r="W231" s="3"/>
-      <c r="X231" s="3"/>
-      <c r="Y231" s="3"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="D232" s="7"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-      <c r="P232" s="3"/>
-      <c r="Q232" s="3"/>
-      <c r="R232" s="3"/>
-      <c r="S232" s="3"/>
-      <c r="T232" s="3"/>
-      <c r="U232" s="3"/>
-      <c r="V232" s="3"/>
-      <c r="W232" s="3"/>
-      <c r="X232" s="3"/>
-      <c r="Y232" s="3"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
-      <c r="Q233" s="3"/>
-      <c r="R233" s="3"/>
-      <c r="S233" s="3"/>
-      <c r="T233" s="3"/>
-      <c r="U233" s="3"/>
-      <c r="V233" s="3"/>
-      <c r="W233" s="3"/>
-      <c r="X233" s="3"/>
-      <c r="Y233" s="3"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-      <c r="Q234" s="3"/>
-      <c r="R234" s="3"/>
-      <c r="S234" s="3"/>
-      <c r="T234" s="3"/>
-      <c r="U234" s="3"/>
-      <c r="V234" s="3"/>
-      <c r="W234" s="3"/>
-      <c r="X234" s="3"/>
-      <c r="Y234" s="3"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="3"/>
-      <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
-      <c r="U235" s="3"/>
-      <c r="V235" s="3"/>
-      <c r="W235" s="3"/>
-      <c r="X235" s="3"/>
-      <c r="Y235" s="3"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
-      <c r="P236" s="3"/>
-      <c r="Q236" s="3"/>
-      <c r="R236" s="3"/>
-      <c r="S236" s="3"/>
-      <c r="T236" s="3"/>
-      <c r="U236" s="3"/>
-      <c r="V236" s="3"/>
-      <c r="W236" s="3"/>
-      <c r="X236" s="3"/>
-      <c r="Y236" s="3"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
-      <c r="P237" s="3"/>
-      <c r="Q237" s="3"/>
-      <c r="R237" s="3"/>
-      <c r="S237" s="3"/>
-      <c r="T237" s="3"/>
-      <c r="U237" s="3"/>
-      <c r="V237" s="3"/>
-      <c r="W237" s="3"/>
-      <c r="X237" s="3"/>
-      <c r="Y237" s="3"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
